--- a/Данные/ЛТХ.xlsx
+++ b/Данные/ЛТХ.xlsx
@@ -1630,13 +1630,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1923,7 +1923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>

--- a/Данные/ЛТХ.xlsx
+++ b/Данные/ЛТХ.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>H</t>
   </si>
@@ -60,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -251,11 +251,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -273,6 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -306,7 +320,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.41156493204E-2"/>
+          <c:y val="4.4018289252583748E-2"/>
+          <c:w val="0.9204579497040416"/>
+          <c:h val="0.90591567248226545"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -1628,15 +1652,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>71157</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>369794</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>156881</xdr:rowOff>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1921,15 +1945,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L14"/>
+  <dimension ref="B1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +1973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
         <v>0</v>
       </c>
@@ -1977,8 +2001,17 @@
       <c r="L2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>3000</v>
       </c>
@@ -2006,8 +2039,17 @@
       <c r="L3" s="6">
         <v>1.6202000000000001</v>
       </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>6000</v>
       </c>
@@ -2035,8 +2077,17 @@
       <c r="L4" s="6">
         <v>1.9</v>
       </c>
+      <c r="O4" s="5">
+        <v>3000</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>9000</v>
       </c>
@@ -2064,8 +2115,17 @@
       <c r="L5" s="6">
         <v>2.2000000000000002</v>
       </c>
+      <c r="O5" s="5">
+        <v>6000</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>11000</v>
       </c>
@@ -2093,8 +2153,17 @@
       <c r="L6" s="6">
         <v>2.4</v>
       </c>
+      <c r="O6" s="5">
+        <v>9000</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.503</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>12000</v>
       </c>
@@ -2122,8 +2191,17 @@
       <c r="L7" s="6">
         <v>2.4</v>
       </c>
+      <c r="O7" s="5">
+        <v>11000</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>15000</v>
       </c>
@@ -2151,8 +2229,17 @@
       <c r="L8" s="6">
         <v>2.4</v>
       </c>
+      <c r="O8" s="5">
+        <v>12000</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>18000</v>
       </c>
@@ -2180,8 +2267,17 @@
       <c r="L9" s="6">
         <v>2.4</v>
       </c>
+      <c r="O9" s="5">
+        <v>15000</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>21000</v>
       </c>
@@ -2209,8 +2305,17 @@
       <c r="L10" s="6">
         <v>2.4</v>
       </c>
+      <c r="O10" s="5">
+        <v>18000</v>
+      </c>
+      <c r="P10" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>24000</v>
       </c>
@@ -2238,8 +2343,17 @@
       <c r="L11" s="6">
         <v>2.4</v>
       </c>
+      <c r="O11" s="5">
+        <v>21000</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1.46</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
         <v>26000</v>
       </c>
@@ -2267,8 +2381,17 @@
       <c r="L12" s="6">
         <v>2.4</v>
       </c>
+      <c r="O12" s="5">
+        <v>24000</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11">
         <v>26250</v>
       </c>
@@ -2296,8 +2419,17 @@
       <c r="L13" s="14">
         <v>2.4</v>
       </c>
+      <c r="O13" s="7">
+        <v>26000</v>
+      </c>
+      <c r="P13" s="17">
+        <v>2.25</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J14" s="7">
         <v>26250</v>
       </c>
@@ -2306,6 +2438,15 @@
       </c>
       <c r="L14" s="8">
         <v>2.2999999999999998</v>
+      </c>
+      <c r="O14" s="9">
+        <v>26250</v>
+      </c>
+      <c r="P14" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Данные/ЛТХ.xlsx
+++ b/Данные/ЛТХ.xlsx
@@ -60,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -264,11 +264,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -287,6 +300,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1945,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q14"/>
+  <dimension ref="B1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="T9" sqref="T9:V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,13 +2321,13 @@
       <c r="L10" s="6">
         <v>2.4</v>
       </c>
-      <c r="O10" s="5">
-        <v>18000</v>
-      </c>
-      <c r="P10" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q10" s="6">
+      <c r="O10" s="18">
+        <v>16000</v>
+      </c>
+      <c r="P10" s="17">
+        <v>0.91</v>
+      </c>
+      <c r="Q10" s="17">
         <v>1</v>
       </c>
     </row>
@@ -2343,15 +2359,9 @@
       <c r="L11" s="6">
         <v>2.4</v>
       </c>
-      <c r="O11" s="5">
-        <v>21000</v>
-      </c>
-      <c r="P11" s="6">
-        <v>1.46</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>1</v>
-      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
@@ -2381,15 +2391,9 @@
       <c r="L12" s="6">
         <v>2.4</v>
       </c>
-      <c r="O12" s="5">
-        <v>24000</v>
-      </c>
-      <c r="P12" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>1</v>
-      </c>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11">
@@ -2419,15 +2423,9 @@
       <c r="L13" s="14">
         <v>2.4</v>
       </c>
-      <c r="O13" s="7">
-        <v>26000</v>
-      </c>
-      <c r="P13" s="17">
-        <v>2.25</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>1</v>
-      </c>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="20"/>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J14" s="7">
@@ -2439,15 +2437,14 @@
       <c r="L14" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O14" s="9">
-        <v>26250</v>
-      </c>
-      <c r="P14" s="9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>1</v>
-      </c>
+      <c r="O14" s="19"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Данные/ЛТХ.xlsx
+++ b/Данные/ЛТХ.xlsx
@@ -947,6 +947,106 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$Q$3:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F32A-4AFB-8938-DF50E8554D64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -965,6 +1065,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -974,8 +1088,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1033,8 +1147,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1078,7 +1198,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -1148,7 +1268,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1175,8 +1295,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1256,11 +1376,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1271,11 +1386,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1287,7 +1397,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1307,9 +1417,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1322,10 +1429,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1365,22 +1472,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1485,8 +1593,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1618,19 +1726,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1644,6 +1753,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1673,10 +1793,10 @@
       <xdr:rowOff>22971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1963,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9:V15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Данные/ЛТХ.xlsx
+++ b/Данные/ЛТХ.xlsx
@@ -416,7 +416,7 @@
                   <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.15</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2083,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,7 +2520,7 @@
         <v>26250</v>
       </c>
       <c r="C13" s="12">
-        <v>2.15</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D13" s="12">
         <v>2.2999999999999998</v>

--- a/Данные/ЛТХ.xlsx
+++ b/Данные/ЛТХ.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7D4D4E-F04D-4A49-BCC0-A33588F321D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>H</t>
   </si>
@@ -38,11 +39,17 @@
   <si>
     <t>M_Cy min</t>
   </si>
+  <si>
+    <t>бесфарсажный варик</t>
+  </si>
+  <si>
+    <t>M_max</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1800,7 +1807,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2080,16 +2093,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2109,7 +2122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B2" s="5">
         <v>0</v>
       </c>
@@ -2146,8 +2159,11 @@
       <c r="Q2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="V2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>3000</v>
       </c>
@@ -2184,8 +2200,17 @@
       <c r="Q3" s="6">
         <v>1</v>
       </c>
+      <c r="V3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
         <v>6000</v>
       </c>
@@ -2223,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>9000</v>
       </c>
@@ -2261,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>11000</v>
       </c>
@@ -2299,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>12000</v>
       </c>
@@ -2337,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>15000</v>
       </c>
@@ -2375,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>18000</v>
       </c>
@@ -2413,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>21000</v>
       </c>
@@ -2451,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>24000</v>
       </c>
@@ -2483,7 +2508,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" s="15">
         <v>26000</v>
       </c>
@@ -2515,7 +2540,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
     </row>
-    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>26250</v>
       </c>
@@ -2547,7 +2572,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="20"/>
     </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J14" s="7">
         <v>26250</v>
       </c>
@@ -2561,7 +2586,7 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>

--- a/Данные/ЛТХ.xlsx
+++ b/Данные/ЛТХ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7D4D4E-F04D-4A49-BCC0-A33588F321D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6317C058-A48D-B94B-980F-9344B7CEEFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>H</t>
   </si>
@@ -45,18 +45,56 @@
   <si>
     <t>M_max</t>
   </si>
+  <si>
+    <t>0.276</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.466</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.218 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.316 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.424 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.498 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.458 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.265 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SFRM1200"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -310,6 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2097,12 +2136,12 @@
   <dimension ref="B1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" ht="16" thickBot="1">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +2161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:24">
       <c r="B2" s="5">
         <v>0</v>
       </c>
@@ -2163,7 +2202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:24">
       <c r="B3" s="5">
         <v>3000</v>
       </c>
@@ -2210,7 +2249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:24" ht="16">
       <c r="B4" s="5">
         <v>6000</v>
       </c>
@@ -2247,8 +2286,17 @@
       <c r="Q4" s="6">
         <v>1</v>
       </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:24" ht="16">
       <c r="B5" s="5">
         <v>9000</v>
       </c>
@@ -2285,8 +2333,17 @@
       <c r="Q5" s="6">
         <v>1</v>
       </c>
+      <c r="V5">
+        <v>4000</v>
+      </c>
+      <c r="W5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="21" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:24" ht="16">
       <c r="B6" s="5">
         <v>11000</v>
       </c>
@@ -2323,8 +2380,17 @@
       <c r="Q6" s="6">
         <v>1</v>
       </c>
+      <c r="V6">
+        <v>8000</v>
+      </c>
+      <c r="W6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="21" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:24" ht="16">
       <c r="B7" s="5">
         <v>12000</v>
       </c>
@@ -2361,8 +2427,17 @@
       <c r="Q7" s="6">
         <v>1</v>
       </c>
+      <c r="V7">
+        <v>12000</v>
+      </c>
+      <c r="W7" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:24" ht="16">
       <c r="B8" s="5">
         <v>15000</v>
       </c>
@@ -2399,8 +2474,17 @@
       <c r="Q8" s="6">
         <v>1</v>
       </c>
+      <c r="V8">
+        <v>16000</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:24" ht="16">
       <c r="B9" s="5">
         <v>18000</v>
       </c>
@@ -2437,8 +2521,17 @@
       <c r="Q9" s="6">
         <v>1</v>
       </c>
+      <c r="V9">
+        <v>19200</v>
+      </c>
+      <c r="W9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" s="21" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:24">
       <c r="B10" s="5">
         <v>21000</v>
       </c>
@@ -2476,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:24">
       <c r="B11" s="5">
         <v>24000</v>
       </c>
@@ -2508,7 +2601,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:24">
       <c r="B12" s="15">
         <v>26000</v>
       </c>
@@ -2540,7 +2633,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
     </row>
-    <row r="13" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" ht="16" thickBot="1">
       <c r="B13" s="11">
         <v>26250</v>
       </c>
@@ -2572,7 +2665,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="20"/>
     </row>
-    <row r="14" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" ht="16" thickBot="1">
       <c r="J14" s="7">
         <v>26250</v>
       </c>
@@ -2586,7 +2679,7 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:24">
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
